--- a/src/16 Scientific Libraries/06 Spreadsheets/data/colored.xlsx
+++ b/src/16 Scientific Libraries/06 Spreadsheets/data/colored.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="writing colors to cells" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="writing to cells" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -40,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5272">
+  <fills count="5273">
     <fill>
       <patternFill/>
     </fill>
@@ -26396,6 +26396,9 @@
       <patternFill patternType="solid">
         <fgColor rgb="000000FF"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -26417,7 +26420,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5272">
+  <cellXfs count="5273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -31692,6 +31695,7 @@
     <xf numFmtId="0" fontId="0" fillId="5270" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5269" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5271" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5272" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33072,7 +33076,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" s="1">
       <c r="A1" s="2455" t="n"/>
-      <c r="B1" s="2456" t="n"/>
+      <c r="B1" s="5269" t="n"/>
       <c r="C1" s="2457" t="n"/>
       <c r="D1" s="2458" t="n"/>
       <c r="E1" s="2459" t="n"/>
@@ -33162,9 +33166,9 @@
       <c r="CK1" s="2543" t="n"/>
     </row>
     <row r="2" ht="21" customHeight="1" s="1">
-      <c r="A2" s="2456" t="n"/>
+      <c r="A2" s="5272" t="n"/>
       <c r="B2" s="2458" t="n"/>
-      <c r="C2" s="2460" t="n"/>
+      <c r="C2" s="5271" t="n"/>
       <c r="D2" s="2462" t="n"/>
       <c r="E2" s="2464" t="n"/>
       <c r="F2" s="2466" t="n"/>
